--- a/Table/Table_xls/k开奖配置文件/k开奖结果配置.xlsx
+++ b/Table/Table_xls/k开奖配置文件/k开奖结果配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="2"/>
+    <workbookView windowWidth="23040" windowHeight="9347" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1007,10 +1007,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -1056,6 +1056,65 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -1070,59 +1129,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1135,53 +1164,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1196,10 +1181,25 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1259,19 +1259,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1283,7 +1307,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1295,19 +1331,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1319,103 +1379,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1433,13 +1397,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1450,17 +1450,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1506,6 +1495,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -1544,9 +1542,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1555,148 +1555,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="38" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2171,10 +2171,10 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="7.5" style="1"/>
-    <col min="2" max="5" width="9.625" style="1" customWidth="1"/>
+    <col min="2" max="5" width="9.62962962962963" style="1" customWidth="1"/>
     <col min="6" max="6" width="68.25" style="1" customWidth="1"/>
     <col min="7" max="8" width="7.5" style="1"/>
-    <col min="9" max="9" width="15.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.1296296296296" style="1" customWidth="1"/>
     <col min="10" max="11" width="7.5" style="1"/>
     <col min="12" max="13" width="11.25" style="1" customWidth="1"/>
     <col min="14" max="16384" width="7.5" style="1"/>
@@ -2390,7 +2390,7 @@
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="18.25" style="11" customWidth="1"/>
     <col min="2" max="2" width="27.25" style="12" customWidth="1"/>
@@ -51949,14 +51949,14 @@
   <sheetPr/>
   <dimension ref="A1:AA45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="6" max="6" width="11.25" customWidth="1"/>
-    <col min="7" max="7" width="11.125"/>
+    <col min="7" max="7" width="11.1296296296296"/>
     <col min="8" max="8" width="11.25" customWidth="1"/>
     <col min="16" max="16" width="23.75" customWidth="1"/>
   </cols>
@@ -53771,7 +53771,7 @@
       <c r="T43" s="1"/>
       <c r="U43" s="1"/>
     </row>
-    <row r="44" spans="2:16">
+    <row r="44" ht="24" spans="2:16">
       <c r="B44" s="8">
         <v>3</v>
       </c>
